--- a/Server/public/Repair_Type_Example.xlsx
+++ b/Server/public/Repair_Type_Example.xlsx
@@ -21,31 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
-    <x:t>(해당 브랜드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>repair_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> (수선처 이름)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000 (수선처와 계약한 단가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수선 단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수선내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원단 마모 (수선 내용 : 수선처에서 보여질 이름)</x:t>
+    <x:t>수선처</x:t>
   </x:si>
   <x:si>
     <x:t>브랜드</x:t>
@@ -54,10 +30,34 @@
     <x:t>예시</x:t>
   </x:si>
   <x:si>
-    <x:t>수선처</x:t>
+    <x:t>repair_price</x:t>
   </x:si>
   <x:si>
-    <x:t>repair_price</x:t>
+    <x:t>수선 단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수선내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shop</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> (수선처 이름)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(해당 브랜드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>repair_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000 (수선처와 계약한 단가 ) * ,(콤마) 없이 입력 *</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원단 마모 (수선 내용 : 수선처에서 보여질 이름)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1239,7 +1239,7 @@
   <x:dimension ref="A1:K13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1260,13 +1260,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1" s="10"/>
       <x:c r="G1" s="10"/>
@@ -1274,33 +1274,33 @@
     </x:row>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" ht="17.800000000000001">
       <x:c r="A3" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="23" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="23" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" s="13" customFormat="1" ht="17.800000000000001">
